--- a/gyes_military_academy_transcript.xlsx
+++ b/gyes_military_academy_transcript.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEF2FF1-11AA-4CB2-8F91-46DE16AA0051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FE493D-759F-4F52-BA03-39E94D63DBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{186ECE80-7E98-41A8-ACBA-753C86FC8229}"/>
   </bookViews>
@@ -420,7 +420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +430,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -766,6 +772,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -787,7 +822,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -841,35 +876,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1186,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3125A4-6E63-4871-843C-93216F5BF61E}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,133 +1211,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="15"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="26"/>
     </row>
     <row r="2" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="33" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="35"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="46"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="46" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="46" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43" t="s">
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="46" t="s">
+      <c r="O4" s="16"/>
+      <c r="P4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43" t="s">
+      <c r="R4" s="16"/>
+      <c r="S4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="44"/>
+      <c r="T4" s="18"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>44</v>
       </c>
@@ -1342,7 +1350,7 @@
       <c r="E5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="4" t="s">
         <v>44</v>
       </c>
@@ -1355,7 +1363,7 @@
       <c r="J5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="46"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="4" t="s">
         <v>44</v>
       </c>
@@ -1368,7 +1376,7 @@
       <c r="O5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="46"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="4" t="s">
         <v>44</v>
       </c>
@@ -1502,7 +1510,7 @@
       <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2"/>
@@ -1556,7 +1564,7 @@
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -1602,7 +1610,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="2"/>
@@ -1637,7 +1645,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1713,7 +1721,7 @@
       <c r="J12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="48" t="s">
+      <c r="K12" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -1759,7 +1767,7 @@
       <c r="J13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="3"/>
@@ -1805,7 +1813,7 @@
       <c r="J14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="14" t="s">
         <v>105</v>
       </c>
       <c r="L14" s="5" t="s">
@@ -1875,7 +1883,7 @@
       <c r="T15" s="9"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="49" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1890,7 +1898,7 @@
       <c r="E16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -1956,7 +1964,7 @@
       <c r="O17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P17" s="48" t="s">
+      <c r="P17" s="14" t="s">
         <v>25</v>
       </c>
       <c r="Q17" s="5" t="s">
@@ -1974,7 +1982,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -2023,7 +2031,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="50" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="5" t="s">
@@ -2038,7 +2046,7 @@
       <c r="O19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P19" s="48" t="s">
+      <c r="P19" s="14" t="s">
         <v>39</v>
       </c>
       <c r="Q19" s="3"/>
@@ -2094,7 +2102,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="50" t="s">
         <v>8</v>
       </c>
       <c r="Q21" s="5" t="s">
@@ -2114,317 +2122,344 @@
       <c r="A22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="38"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38" t="s">
+      <c r="H22" s="19"/>
+      <c r="I22" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="38"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38" t="s">
+      <c r="M22" s="19"/>
+      <c r="N22" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="O22" s="38"/>
+      <c r="O22" s="19"/>
       <c r="P22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q22" s="38" t="s">
+      <c r="Q22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38" t="s">
+      <c r="R22" s="19"/>
+      <c r="S22" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T22" s="39"/>
+      <c r="T22" s="21"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="38"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38" t="s">
+      <c r="H23" s="19"/>
+      <c r="I23" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J23" s="38"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38" t="s">
+      <c r="M23" s="19"/>
+      <c r="N23" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="O23" s="38"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q23" s="38" t="s">
+      <c r="Q23" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38" t="s">
+      <c r="R23" s="19"/>
+      <c r="S23" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="T23" s="39"/>
+      <c r="T23" s="21"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="38"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38" t="s">
+      <c r="H24" s="19"/>
+      <c r="I24" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="38"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38" t="s">
+      <c r="M24" s="19"/>
+      <c r="N24" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="O24" s="38"/>
+      <c r="O24" s="19"/>
       <c r="P24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q24" s="38" t="s">
+      <c r="Q24" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38" t="s">
+      <c r="R24" s="19"/>
+      <c r="S24" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="T24" s="39"/>
+      <c r="T24" s="21"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
       <c r="P25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Q25" s="38" t="s">
+      <c r="Q25" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="41"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="23"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="18"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="29"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="21"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="32"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="21"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="32"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="24"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="35"/>
     </row>
     <row r="30" spans="1:20" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="28" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="30"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="41"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="F26:T29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="K3:O3"/>
@@ -2441,39 +2476,12 @@
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="F26:T29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
